--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434642.1351031582</v>
+        <v>434906.196841524</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.510437304</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6444275.540412636</v>
+        <v>6274959.062585028</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>404.7438539098935</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.92670819126146</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>271.0640515220189</v>
+        <v>176.1262882516938</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>404.743853909894</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -1038,7 +1040,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>105.7788661369297</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.99907738596962</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1227,7 +1229,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464081</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -1376,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>6.338580986754437</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>197.6281584307293</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1844,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>100.0791888769552</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>10.12090774188803</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>78.78400486012846</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>31.07622666973845</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.3012586946835</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0638484442161</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059088</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>268.6897786089774</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,19 +2478,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>156.6355495128298</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>72.26277306602857</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.972339687115845</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>4.879956658077294</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>182.9658461469753</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2795,16 +2797,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>40.3950232139772</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>403.2658873081451</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2959,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>103.2794232765812</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>8.495405873040108</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919141</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.35334490128979</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>247.9259431665817</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>403.2658873081456</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>181.8523372487124</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>11.22535429200818</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0.6594333092501665</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>53.45973614417019</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>200.9774648288092</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>2.116870328528817</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.47250245706859</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3952,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>271.0640515220189</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>390.1527797502169</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502169</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.7325212547721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4112,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>106.1331548337414</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751807</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>146.096337622853</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1270.693821706375</v>
+        <v>1679.422105813543</v>
       </c>
       <c r="C2" t="n">
-        <v>860.5692310196448</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="D2" t="n">
-        <v>456.1053011127053</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L2" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4358,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2030.752556034384</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2030.752556034384</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4525,13 +4527,13 @@
         <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>229.4647920236465</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="X4" t="n">
-        <v>229.4647920236465</v>
+        <v>325.3615225997324</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.4647920236465</v>
+        <v>325.3615225997324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1679.422105813543</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C5" t="n">
-        <v>1269.297515126813</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D5" t="n">
-        <v>864.8335852198732</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>450.4933697367699</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4638,34 +4640,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>81.91922121582758</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,10 +4682,10 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>454.2004906348817</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236464</v>
       </c>
     </row>
     <row r="8">
@@ -4784,43 +4786,43 @@
         <v>446.2290155365415</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M8" t="n">
-        <v>733.4074053521598</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2041.79056694882</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>2041.79056694882</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W8" t="n">
-        <v>1658.030266083988</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X8" t="n">
-        <v>1257.386868252941</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y8" t="n">
-        <v>856.450195201031</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>81.91922121582746</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811262</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4914,7 +4916,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V9" t="n">
         <v>1409.860069912671</v>
@@ -4926,7 +4928,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -5002,10 +5004,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>856.3536062232714</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C11" t="n">
-        <v>446.2290155365415</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L11" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M11" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5075,16 +5077,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.511458939671</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y11" t="n">
-        <v>1266.574785887761</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>751.4208778585605</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.263812524886</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5239,10 +5241,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>446.2290155365415</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C14" t="n">
         <v>446.2290155365415</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L14" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M14" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N14" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O14" t="n">
         <v>2047.697635790537</v>
@@ -5309,19 +5311,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1447.433488874781</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X14" t="n">
-        <v>1046.790091043734</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y14" t="n">
-        <v>645.8534179918237</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
         <v>2088.254281480102</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>866.2298917994352</v>
+        <v>142.8551754043043</v>
       </c>
       <c r="C17" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D17" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W17" t="n">
-        <v>2078.031142346882</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X17" t="n">
-        <v>1677.387744515835</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y17" t="n">
-        <v>1276.451071463925</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N18" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O18" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>719.1799065727032</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>719.1799065727032</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>719.1799065727032</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.598203386633</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.800055932758</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V19" t="n">
-        <v>783.9143108722797</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W19" t="n">
-        <v>504.844646381154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X19" t="n">
-        <v>266.5007842408373</v>
+        <v>906.8796129667476</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>906.8796129667476</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1700.88079042271</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="C20" t="n">
-        <v>1700.88079042271</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.41686051577</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="E20" t="n">
-        <v>882.0766450326671</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>461.0462329863546</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>590.4774499882262</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L20" t="n">
-        <v>677.39735278236</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1324.831970162296</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1972.266587542232</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2480.616368753438</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.616368753438</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X20" t="n">
-        <v>2079.97297092239</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y20" t="n">
-        <v>1700.88079042271</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M21" t="n">
-        <v>699.7525662591225</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N21" t="n">
-        <v>1347.187183639058</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O21" t="n">
-        <v>1347.187183639058</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.962680045703</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1025.305753284649</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C22" t="n">
-        <v>854.2123808463659</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D22" t="n">
-        <v>694.7177361692759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E22" t="n">
-        <v>533.8069210375954</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F22" t="n">
-        <v>369.1757951481867</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G22" t="n">
-        <v>201.9254040737301</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H22" t="n">
-        <v>52.31794887918674</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.716845500037</v>
+        <v>1816.589795035411</v>
       </c>
       <c r="T22" t="n">
-        <v>1581.716845500037</v>
+        <v>1577.041056012114</v>
       </c>
       <c r="U22" t="n">
-        <v>1581.716845500037</v>
+        <v>1294.242908558238</v>
       </c>
       <c r="V22" t="n">
-        <v>1581.716845500037</v>
+        <v>1020.35716349776</v>
       </c>
       <c r="W22" t="n">
-        <v>1451.34932181901</v>
+        <v>741.2874990066341</v>
       </c>
       <c r="X22" t="n">
-        <v>1213.005459678694</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="Y22" t="n">
-        <v>1213.005459678694</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.126100861739</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C23" t="n">
-        <v>2043.001510175009</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.53758026807</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3919.448071219715</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3919.448071219715</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3535.687770354883</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>3264.283953578138</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2863.347280526228</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L24" t="n">
-        <v>413.3841943035195</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M24" t="n">
-        <v>1256.361274998086</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N24" t="n">
-        <v>2130.019367109704</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1000.493731225603</v>
+        <v>1393.020729020946</v>
       </c>
       <c r="C25" t="n">
-        <v>1000.493731225603</v>
+        <v>1221.927356582663</v>
       </c>
       <c r="D25" t="n">
-        <v>842.2760044449672</v>
+        <v>1062.432711905573</v>
       </c>
       <c r="E25" t="n">
-        <v>681.3651893132867</v>
+        <v>1062.432711905573</v>
       </c>
       <c r="F25" t="n">
-        <v>516.734063423878</v>
+        <v>897.8015860161642</v>
       </c>
       <c r="G25" t="n">
-        <v>349.4836723494213</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H25" t="n">
-        <v>199.876217154878</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R25" t="n">
-        <v>1612.929067880054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S25" t="n">
-        <v>1426.537299759964</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T25" t="n">
-        <v>1426.537299759964</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U25" t="n">
-        <v>1426.537299759964</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V25" t="n">
-        <v>1426.537299759964</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.537299759964</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.193437619648</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="Y25" t="n">
-        <v>1188.193437619648</v>
+        <v>1580.720435414991</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>871.5237817830823</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="C26" t="n">
-        <v>871.5237817830823</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D26" t="n">
-        <v>871.5237817830823</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E26" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L26" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O26" t="n">
         <v>2088.254281480102</v>
@@ -6251,25 +6253,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2088.254281480102</v>
+        <v>2079.191312099177</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1856.984828046035</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1599.924336305545</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.086781642026</v>
       </c>
       <c r="W26" t="n">
-        <v>2083.325032330529</v>
+        <v>866.3264807771948</v>
       </c>
       <c r="X26" t="n">
-        <v>1682.681634499482</v>
+        <v>866.3264807771948</v>
       </c>
       <c r="Y26" t="n">
-        <v>1281.744961447572</v>
+        <v>866.3264807771948</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M27" t="n">
-        <v>1531.257211227551</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N27" t="n">
-        <v>1531.257211227551</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O27" t="n">
-        <v>2048.100145893876</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.76508562960205</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C28" t="n">
-        <v>41.76508562960205</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>689.6586323881997</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W28" t="n">
-        <v>689.6586323881997</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X28" t="n">
-        <v>451.3147702478831</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y28" t="n">
-        <v>226.5790716366478</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>492.6927300678241</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C29" t="n">
-        <v>82.56813938109417</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D29" t="n">
-        <v>82.56813938109417</v>
+        <v>863.4445812219428</v>
       </c>
       <c r="E29" t="n">
-        <v>82.56813938109417</v>
+        <v>449.1043657388395</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960205</v>
+        <v>449.1043657388395</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N29" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6500,13 +6502,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>902.9139097323135</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6536,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O30" t="n">
         <v>1592.293889628578</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1154.67686688063</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C31" t="n">
-        <v>983.5834944423468</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D31" t="n">
-        <v>824.0888497652568</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>663.1780346335763</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592519</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U31" t="n">
-        <v>1805.456134026226</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V31" t="n">
-        <v>1805.456134026226</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W31" t="n">
-        <v>1805.456134026226</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X31" t="n">
-        <v>1567.11227188591</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y31" t="n">
-        <v>1342.376573274675</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.033101815613</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.908511128883</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="D32" t="n">
-        <v>1267.908511128883</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="E32" t="n">
-        <v>853.5682956457795</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F32" t="n">
-        <v>432.537883599467</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.568412147452</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M32" t="n">
-        <v>1571.411346813777</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="N32" t="n">
-        <v>2088.254281480102</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O32" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1722.185504167486</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1722.185504167486</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1338.425203302654</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>937.7818054716066</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>536.8451324196967</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6776,16 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811262</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M33" t="n">
         <v>1054.568412147451</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.1971997769844</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C34" t="n">
-        <v>224.1971997769844</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D34" t="n">
-        <v>224.1971997769844</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E34" t="n">
-        <v>224.1971997769844</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F34" t="n">
-        <v>224.1971997769844</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G34" t="n">
-        <v>224.1971997769844</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L34" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M34" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O34" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P34" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1971997769844</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X34" t="n">
-        <v>224.1971997769844</v>
+        <v>2060.624640165668</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.1971997769844</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815613</v>
+        <v>696.6592611593513</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.908511128883</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D35" t="n">
-        <v>863.4445812219433</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E35" t="n">
-        <v>449.10436573884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>449.10436573884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6968,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>696.6592611593513</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7254774811262</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.568412147451</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P36" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>729.9487572975354</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C37" t="n">
-        <v>558.8553848592519</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1816.589795035412</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T37" t="n">
-        <v>1577.041056012114</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U37" t="n">
-        <v>1294.242908558238</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.35716349776</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W37" t="n">
-        <v>741.2874990066346</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X37" t="n">
-        <v>729.9487572975354</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y37" t="n">
-        <v>729.9487572975354</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1695.988587952916</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C38" t="n">
-        <v>1285.863997266186</v>
+        <v>2087.588187228334</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.863997266186</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O38" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7248,16 +7250,16 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811262</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M39" t="n">
         <v>1054.568412147451</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7360,22 +7362,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T40" t="n">
-        <v>1245.499762326802</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.499762326802</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V40" t="n">
-        <v>971.614017266324</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W40" t="n">
-        <v>692.5443527751984</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X40" t="n">
-        <v>454.2004906348818</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y40" t="n">
-        <v>229.4647920236465</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1274.958175906603</v>
+        <v>1046.496815822871</v>
       </c>
       <c r="C41" t="n">
-        <v>864.8335852198732</v>
+        <v>1046.496815822871</v>
       </c>
       <c r="D41" t="n">
-        <v>864.8335852198732</v>
+        <v>642.0328859159313</v>
       </c>
       <c r="E41" t="n">
-        <v>450.4933697367699</v>
+        <v>642.0328859159313</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>642.0328859159313</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
         <v>2047.697635790537</v>
@@ -7442,19 +7444,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X41" t="n">
-        <v>2086.116028623002</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="Y41" t="n">
-        <v>1685.179355571093</v>
+        <v>1046.496815822871</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7484,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P42" t="n">
         <v>2088.254281480102</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>353.9242034151438</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C43" t="n">
-        <v>182.8308309768603</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D43" t="n">
-        <v>182.8308309768603</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>182.8308309768603</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>182.8308309768603</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>182.8308309768603</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U43" t="n">
-        <v>1145.223475107064</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V43" t="n">
-        <v>871.3377300465861</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W43" t="n">
-        <v>592.2680655554605</v>
+        <v>229.4647920236464</v>
       </c>
       <c r="X43" t="n">
-        <v>353.9242034151438</v>
+        <v>229.4647920236464</v>
       </c>
       <c r="Y43" t="n">
-        <v>353.9242034151438</v>
+        <v>229.4647920236464</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1560.611119000868</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="C44" t="n">
-        <v>1213.49337313825</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.49337313825</v>
+        <v>1147.572603315353</v>
       </c>
       <c r="E44" t="n">
-        <v>819.3996562188394</v>
+        <v>733.23238783225</v>
       </c>
       <c r="F44" t="n">
-        <v>425.3059392994284</v>
+        <v>312.2019757859375</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>312.2019757859375</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L44" t="n">
-        <v>747.5519694058733</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M44" t="n">
-        <v>747.5519694058733</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N44" t="n">
-        <v>747.5519694058733</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O44" t="n">
-        <v>1133.803221358588</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y44" t="n">
-        <v>1560.611119000868</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960173</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>417.4634743327321</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L45" t="n">
-        <v>803.7147262854468</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.965978238161</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.611119000868</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O45" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1186.074038399415</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V45" t="n">
-        <v>1186.074038399415</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1186.074038399415</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>1050.354217106305</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>879.2608446680219</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>719.7661999909319</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T46" t="n">
-        <v>1330.045340137049</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U46" t="n">
-        <v>1047.247192683173</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="V46" t="n">
-        <v>773.3614476226949</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="W46" t="n">
-        <v>494.2917831315693</v>
+        <v>1701.133484251902</v>
       </c>
       <c r="X46" t="n">
-        <v>255.9479209912527</v>
+        <v>1462.789622111585</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>1238.05392350035</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>549.1401736751965</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>236.9512395019904</v>
       </c>
       <c r="N3" t="n">
-        <v>67.6779873391382</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731805</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>296.9001458002834</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>91.92897171537935</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>392.2643757374379</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>269.8552598673813</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8529,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>91.92897171537922</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>528.8634714130245</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8553,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>296.5410069764447</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>359.4030239885891</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>201.8514806265823</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>296.4405581451824</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9009,19 +9011,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9164,19 +9166,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9246,25 +9248,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>555.2297277821215</v>
+        <v>525.3716274158282</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L20" t="n">
-        <v>183.283279673081</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>747.2645854468797</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>746.8866517464535</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9422,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>460.0934697569904</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>537.3610023606258</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9720,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>389.3004056737939</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9875,19 +9877,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>94.8193679181835</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>362.9022490996783</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O29" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10133,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>555.229727782121</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10349,28 +10351,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>553.2940084590247</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>557.0846165901664</v>
+        <v>362.3241544056885</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10589,25 +10591,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574857</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>557.0846165901664</v>
+        <v>362.3241544056885</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11060,16 +11062,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>493.8215862770622</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
@@ -11078,7 +11080,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11145,16 +11147,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>555.229727782121</v>
+        <v>360.4692655976433</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>172.155118876367</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>594.6194560602016</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>427.5824244671906</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.375113957951044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22598,13 +22600,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>163.0577110213483</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22717,13 +22719,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5.214916324195428</v>
+        <v>100.1526795945205</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.375113957950589</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>300.3401017309149</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23075,10 +23077,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>208.4908094371154</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23315,13 +23317,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>326.4407486545939</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>390.2983828659825</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>208.4908094371152</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>360.0242673938934</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>305.9441559029073</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23789,10 +23791,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>369.8017901142951</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23896,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>80.51770212023526</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23972,10 +23974,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>379.1205866585338</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -24029,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.6260476267073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>147.2151194019983</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.35263051300461</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24260,19 +24262,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>127.9471852437596</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.264148717489235</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.31511409768343</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,13 +24451,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>124.9559247667243</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>375.0427411981058</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.856863183128638</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>376.4250847118721</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>1.375113957950987</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24740,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>59.70539135393348</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>245.9944809500449</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340649</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176236</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>158.0974016132809</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>1.375113957950532</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25208,19 +25210,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>89.29455036116087</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.7350692269053</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>405.3639114706124</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>183.6935154888947</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>203.6635364372869</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>394.5200935242082</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25801,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>123.6388781855293</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>5.214916324195428</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25865,22 +25867,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>62.37677637587143</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>20.04403357805535</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563241</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>40.06689114378707</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -25931,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25998,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>89.24414791942208</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26074,16 +26076,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884234</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>130.1826302233613</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542669.9258381808</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600798.9953562315</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772727.447533634</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542669.9258381808</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542669.9258381808</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542669.9258381808</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453577.6333607661</v>
+        <v>542669.9258381806</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="C2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="D2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="E2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="G2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="H2" t="n">
-        <v>168506.7249250815</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
-        <v>216715.8251848053</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="J2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="K2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="L2" t="n">
         <v>152207.2113488842</v>
@@ -26353,7 +26355,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="P2" t="n">
-        <v>127225.5448125013</v>
+        <v>152207.2113488842</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="D4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="E4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="F4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.4924681404</v>
       </c>
       <c r="H4" t="n">
-        <v>32585.06789049297</v>
+        <v>29404.4924681404</v>
       </c>
       <c r="I4" t="n">
-        <v>41992.26146734449</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="J4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="K4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="L4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="M4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="N4" t="n">
-        <v>29404.49246814042</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="O4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="P4" t="n">
-        <v>24529.74119267544</v>
+        <v>29404.49246814041</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117521.8560908678</v>
+        <v>-117521.8560908679</v>
       </c>
       <c r="C6" t="n">
-        <v>57433.6538022462</v>
+        <v>57433.65380224623</v>
       </c>
       <c r="D6" t="n">
-        <v>57433.65380224617</v>
+        <v>57433.65380224623</v>
       </c>
       <c r="E6" t="n">
-        <v>91061.25380224622</v>
+        <v>91061.25380224621</v>
       </c>
       <c r="F6" t="n">
-        <v>91061.25380224625</v>
+        <v>91061.25380224615</v>
       </c>
       <c r="G6" t="n">
-        <v>91061.25380224625</v>
+        <v>91061.25380224621</v>
       </c>
       <c r="H6" t="n">
-        <v>60569.29738006663</v>
+        <v>91061.25380224627</v>
       </c>
       <c r="I6" t="n">
-        <v>7490.816216508247</v>
+        <v>91061.25380224621</v>
       </c>
       <c r="J6" t="n">
-        <v>91061.25380224628</v>
+        <v>-45533.54700364874</v>
       </c>
       <c r="K6" t="n">
-        <v>91061.2538022462</v>
+        <v>91061.25380224615</v>
       </c>
       <c r="L6" t="n">
-        <v>91061.2538022462</v>
+        <v>91061.25380224624</v>
       </c>
       <c r="M6" t="n">
-        <v>91061.25380224622</v>
+        <v>91061.25380224621</v>
       </c>
       <c r="N6" t="n">
-        <v>91061.25380224622</v>
+        <v>91061.25380224624</v>
       </c>
       <c r="O6" t="n">
-        <v>91061.2538022462</v>
+        <v>91061.25380224624</v>
       </c>
       <c r="P6" t="n">
-        <v>78974.51461101268</v>
+        <v>91061.25380224627</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="N3" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>40.55973291537934</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>40.55973291537921</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>306.2096305948391</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793177</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L20" t="n">
-        <v>87.79788161023616</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>405.8338347541867</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>441.875604297781</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>333.1858818629448</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O29" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793172</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.9700927793173</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.9700927793173</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>400.9092955204429</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>500.9700927793172</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>76.66972081352215</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>374.3890310734406</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>434906.196841524</v>
+        <v>429176.8010102974</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763807</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404.7438539098935</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>58.0002167169146</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>176.1262882516938</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388.3430365919143</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>28.11724303810194</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>42.43741174507631</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105.7788661369297</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>166.8806507775566</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464081</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.16759473070969</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>12.18473551758482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.338580986754437</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1584,19 +1584,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>197.2502656650658</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>206.0329791175249</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>19.89843046228975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0791888769552</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>98.99759922439655</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>78.78400486012846</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>246.9516907565477</v>
       </c>
       <c r="E20" t="n">
-        <v>31.07622666973845</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>215.924477675757</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>72.26277306602857</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>34.42071144530481</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.972339687115845</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>266.2723283900668</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>55.69551283691921</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>403.2658873081451</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>348.6882242064236</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>152.2854730783503</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>8.495405873040108</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>247.9259431665817</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>11.83104910464699</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>181.8523372487124</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>156.768797569453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6594333092501665</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3514,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>314.7355169208674</v>
       </c>
       <c r="G41" t="n">
-        <v>200.9774648288092</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>271.0640515220189</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>267.7325212547721</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>21.88456512328492</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>54.29350408687457</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>146.096337622853</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1679.422105813543</v>
+        <v>100.351163121435</v>
       </c>
       <c r="C2" t="n">
-        <v>1269.297515126813</v>
+        <v>100.351163121435</v>
       </c>
       <c r="D2" t="n">
-        <v>864.8335852198732</v>
+        <v>100.351163121435</v>
       </c>
       <c r="E2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
         <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>911.5090158378343</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>510.5723427859244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767163</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767163</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.3615225997324</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>325.3615225997324</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>325.3615225997324</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>325.3615225997324</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>325.3615225997324</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>325.3615225997324</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X4" t="n">
-        <v>325.3615225997324</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.3615225997324</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1695.988587952916</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>81.91922121582758</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811263</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1528.297909780678</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1245.499762326802</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>971.614017266324</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>692.5443527751984</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>454.2004906348817</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>446.2290155365415</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C8" t="n">
-        <v>446.2290155365415</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1054.568412147451</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N8" t="n">
-        <v>2088.254281480102</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="V8" t="n">
-        <v>1738.416726816582</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="W8" t="n">
-        <v>1354.656425951751</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="X8" t="n">
-        <v>954.0130281207037</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y8" t="n">
-        <v>553.0763550687938</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736455</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N9" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4916,7 +4916,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
         <v>1409.860069912671</v>
@@ -4928,7 +4928,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>271.1259876104392</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>271.1259876104392</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>111.6313429333492</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>111.6313429333492</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>111.6313429333492</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960203</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960203</v>
+        <v>271.1259876104392</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1270.693821706375</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C11" t="n">
-        <v>860.5692310196448</v>
+        <v>867.2651132978355</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1053011127053</v>
+        <v>462.801183390896</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>462.801183390896</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>462.801183390896</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>54.07289928372813</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N11" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O11" t="n">
         <v>1209.69369432892</v>
@@ -5083,10 +5083,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>2081.851674422774</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y11" t="n">
-        <v>1680.915001370864</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960203</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959272</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962252</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>672.0950374556105</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>433.7511753152939</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>856.3536062232714</v>
+        <v>1064.467726544004</v>
       </c>
       <c r="C14" t="n">
-        <v>446.2290155365415</v>
+        <v>654.3431358572738</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960203</v>
+        <v>249.8792059503343</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960203</v>
+        <v>249.8792059503343</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L14" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M14" t="n">
-        <v>1530.854701124212</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N14" t="n">
-        <v>2047.697635790537</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W14" t="n">
-        <v>2068.154856770718</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X14" t="n">
-        <v>1667.511458939671</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y14" t="n">
-        <v>1266.574785887761</v>
+        <v>1064.467726544004</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811263</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>142.8551754043043</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.416726816582</v>
+        <v>1373.708655506434</v>
       </c>
       <c r="W17" t="n">
-        <v>1354.656425951751</v>
+        <v>1373.708655506434</v>
       </c>
       <c r="X17" t="n">
-        <v>954.0130281207037</v>
+        <v>1373.708655506434</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.0763550687938</v>
+        <v>1373.708655506434</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962252</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.1799065727032</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>719.1799065727032</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>719.1799065727032</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1145.223475107064</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1145.223475107064</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>1145.223475107064</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>906.8796129667476</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.8796129667476</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>902.9139097323131</v>
+        <v>1420.972610075123</v>
       </c>
       <c r="C20" t="n">
-        <v>902.9139097323131</v>
+        <v>1010.848019388393</v>
       </c>
       <c r="D20" t="n">
-        <v>902.9139097323131</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N20" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5785,19 +5785,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W20" t="n">
-        <v>1704.49398061527</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X20" t="n">
-        <v>1303.850582784223</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y20" t="n">
-        <v>902.9139097323131</v>
+        <v>1831.193789739612</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962252</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
         <v>2088.254281480102</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2002.981563155501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1816.589795035411</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1577.041056012114</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.242908558238</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.35716349776</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>741.2874990066341</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>558.8553848592514</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.988587952916</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>668.5989027425851</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>668.5989027425851</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>668.5989027425851</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>259.8706186354173</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K23" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L23" t="n">
-        <v>1250.250340018485</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M23" t="n">
-        <v>1250.250340018485</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N23" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O23" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960203</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P24" t="n">
         <v>2088.254281480102</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1393.020729020946</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>1221.927356582663</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>1062.432711905573</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>1062.432711905573</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>897.8015860161642</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1805.456134026226</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V25" t="n">
-        <v>1805.456134026226</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W25" t="n">
-        <v>1805.456134026226</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X25" t="n">
-        <v>1805.456134026226</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y25" t="n">
-        <v>1580.720435414991</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>456.1053011127053</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="C26" t="n">
-        <v>456.1053011127053</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D26" t="n">
-        <v>456.1053011127053</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E26" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>537.7254774811263</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.568412147451</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N26" t="n">
-        <v>2088.254281480102</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O26" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S26" t="n">
-        <v>2079.191312099177</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1856.984828046035</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U26" t="n">
-        <v>1599.924336305545</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V26" t="n">
-        <v>1250.086781642026</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W26" t="n">
-        <v>866.3264807771948</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X26" t="n">
-        <v>866.3264807771948</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="Y26" t="n">
-        <v>866.3264807771948</v>
+        <v>1312.152413668882</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>751.4208778585604</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N27" t="n">
-        <v>1268.263812524885</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O27" t="n">
-        <v>1785.106747191211</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P27" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.3531027449755</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C28" t="n">
         <v>201.259730306692</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.202034381698</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.132369890572</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>784.7885077502552</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.0528091390199</v>
+        <v>201.259730306692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.033101815612</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.908511128882</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D29" t="n">
-        <v>863.4445812219428</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E29" t="n">
-        <v>449.1043657388395</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F29" t="n">
-        <v>449.1043657388395</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L29" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M29" t="n">
-        <v>1846.479361096332</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N29" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6493,22 +6493,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>873.0166773404039</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>873.0166773404039</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C32" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D32" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E32" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F32" t="n">
-        <v>536.8451324196967</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6730,22 +6730,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>1722.185504167486</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>1722.185504167486</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W32" t="n">
-        <v>1338.425203302654</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X32" t="n">
-        <v>937.7818054716066</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y32" t="n">
-        <v>536.8451324196967</v>
+        <v>195.5887958097538</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N33" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>2088.254281480102</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>2060.624640165668</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>696.6592611593513</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="C35" t="n">
-        <v>446.2290155365415</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960203</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>53.71564028076062</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>53.71564028076062</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M35" t="n">
-        <v>176.0078249962694</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N35" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O35" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P35" t="n">
         <v>1726.536628995245</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V35" t="n">
-        <v>1481.356235076093</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.595934211261</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.595934211261</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y35" t="n">
-        <v>696.6592611593513</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>158.3214934345128</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>158.3214934345128</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>158.3214934345128</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>675.164428100838</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N36" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.3531027449755</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7119,28 +7119,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1485.891263925851</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U37" t="n">
-        <v>1485.891263925851</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.202034381698</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W37" t="n">
-        <v>1023.132369890572</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X37" t="n">
-        <v>784.7885077502552</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y37" t="n">
-        <v>560.0528091390199</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>1171.477728391927</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1171.477728391927</v>
+      </c>
+      <c r="D38" t="n">
+        <v>767.0137984849873</v>
+      </c>
+      <c r="E38" t="n">
+        <v>352.673583001884</v>
+      </c>
+      <c r="F38" t="n">
+        <v>352.673583001884</v>
+      </c>
+      <c r="G38" t="n">
+        <v>352.673583001884</v>
+      </c>
+      <c r="H38" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="I38" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="J38" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="K38" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1329.636426430007</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1846.479361096332</v>
+      </c>
+      <c r="N38" t="n">
         <v>2088.254281480102</v>
       </c>
-      <c r="C38" t="n">
-        <v>2087.588187228334</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1683.124257321394</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1268.784041838291</v>
-      </c>
-      <c r="F38" t="n">
-        <v>847.7536297919787</v>
-      </c>
-      <c r="G38" t="n">
-        <v>439.0253456848109</v>
-      </c>
-      <c r="H38" t="n">
-        <v>128.1168483125289</v>
-      </c>
-      <c r="I38" t="n">
-        <v>41.76508562960203</v>
-      </c>
-      <c r="J38" t="n">
-        <v>41.76508562960203</v>
-      </c>
-      <c r="K38" t="n">
-        <v>41.76508562960203</v>
-      </c>
-      <c r="L38" t="n">
-        <v>41.76508562960203</v>
-      </c>
-      <c r="M38" t="n">
-        <v>176.0078249962694</v>
-      </c>
-      <c r="N38" t="n">
-        <v>692.8507596625946</v>
-      </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
         <v>2088.254281480102</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W40" t="n">
-        <v>224.1971997769844</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X40" t="n">
-        <v>41.76508562960203</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1046.496815822871</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="C41" t="n">
-        <v>1046.496815822871</v>
+        <v>670.5882465583157</v>
       </c>
       <c r="D41" t="n">
-        <v>642.0328859159313</v>
+        <v>670.5882465583157</v>
       </c>
       <c r="E41" t="n">
-        <v>642.0328859159313</v>
+        <v>670.5882465583157</v>
       </c>
       <c r="F41" t="n">
-        <v>642.0328859159313</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>439.0253456848109</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L41" t="n">
-        <v>1329.636426430007</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M41" t="n">
-        <v>1846.479361096332</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N41" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O41" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7447,16 +7447,16 @@
         <v>1831.193789739612</v>
       </c>
       <c r="V41" t="n">
-        <v>1831.193789739612</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W41" t="n">
-        <v>1447.433488874781</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X41" t="n">
-        <v>1447.433488874781</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y41" t="n">
-        <v>1046.496815822871</v>
+        <v>1080.712837245046</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>219.3581718355396</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L42" t="n">
-        <v>234.5779431922353</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M42" t="n">
-        <v>751.4208778585604</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N42" t="n">
-        <v>1268.263812524885</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O42" t="n">
-        <v>1785.106747191211</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>229.4647920236464</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>229.4647920236464</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>229.4647920236464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1552.036533222293</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="C44" t="n">
-        <v>1552.036533222293</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="D44" t="n">
-        <v>1147.572603315353</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E44" t="n">
-        <v>733.23238783225</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F44" t="n">
-        <v>312.2019757859375</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G44" t="n">
-        <v>312.2019757859375</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959272</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1952.973206274203</v>
+        <v>2066.148660143451</v>
       </c>
       <c r="V44" t="n">
-        <v>1952.973206274203</v>
+        <v>2066.148660143451</v>
       </c>
       <c r="W44" t="n">
-        <v>1952.973206274203</v>
+        <v>1682.388359278619</v>
       </c>
       <c r="X44" t="n">
-        <v>1952.973206274203</v>
+        <v>1281.744961447572</v>
       </c>
       <c r="Y44" t="n">
-        <v>1552.036533222293</v>
+        <v>1281.744961447572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736455</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960173</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
         <v>2088.254281480102</v>
@@ -7760,7 +7760,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
         <v>1409.860069912671</v>
@@ -7772,7 +7772,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1050.354217106305</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C46" t="n">
-        <v>879.2608446680219</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D46" t="n">
-        <v>719.7661999909319</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1848.705542456804</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1848.705542456804</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1701.133484251902</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1462.789622111585</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.05392350035</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896167</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>236.9512395019904</v>
+        <v>72.0488776838054</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0504334731805</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8230,16 +8230,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>91.92897171537935</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525346</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>528.8634714130245</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>228.5110173896167</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8771,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>68.26591628750424</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>201.8514806265823</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>555.489182064824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>532.6464328093259</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051006</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>525.3716274158282</v>
+        <v>422.1224761037303</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P21" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>537.3610023606258</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794547</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>555.2297277821212</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>590.1064824525346</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.9022490996783</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>296.1630732760184</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10135,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>89.13638967321712</v>
@@ -10357,19 +10357,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>553.2940084590247</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10430,19 +10430,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>362.3241544056885</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>228.8889510900428</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509096</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>169.1029840574857</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>228.8889510900428</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,19 +10904,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>362.3241544056885</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328703</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>296.1630732760184</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>230.7561945635733</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>360.4692655976433</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>594.6194560602016</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,25 +11375,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>554.1634861730674</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.375113957951044</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>352.1965966113576</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>100.1526795945205</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.7759312759303</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>318.2219360787822</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -22852,7 +22852,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22995,7 +22995,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>194.7158398879886</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>300.3401017309149</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23074,22 +23074,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>87.60923604552838</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23184,7 +23184,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -23193,7 +23193,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>96.41029243300231</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130049</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>295.6146768809743</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>390.2983828659825</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>79.02870218114853</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>210.7871288083244</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23548,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23557,7 +23557,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>360.0242673938934</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>305.9441559029073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -23752,7 +23752,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>247.3415798924876</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>80.51770212023526</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>153.4675998513223</v>
       </c>
       <c r="E20" t="n">
-        <v>379.1205866585338</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24025,19 +24025,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>91.87493472280215</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24271,7 +24271,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>93.31511409768343</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>371.6982564225398</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.9559247667243</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4.874559219806486</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>166.7928287882037</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.375113957950987</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24733,19 +24733,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>47.94873964631341</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>253.8334947894943</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24931,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>245.9944809500449</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176236</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>158.0974016132809</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>295.9683632939122</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25207,7 +25207,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>89.29455036116087</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>249.3501702983916</v>
       </c>
       <c r="C38" t="n">
-        <v>405.3639114706124</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -25459,7 +25459,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>102.0845910049819</v>
       </c>
       <c r="G41" t="n">
-        <v>203.6635364372869</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.214916324195428</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>40.06689114378707</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>232.6053216998001</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.6061941434445</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.1826302233613</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>542669.9258381807</v>
+        <v>542669.9258381808</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542669.9258381807</v>
+        <v>542669.9258381808</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542669.9258381808</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>542669.9258381806</v>
+        <v>542669.9258381807</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="C2" t="n">
         <v>152207.2113488842</v>
@@ -26325,7 +26325,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="G2" t="n">
         <v>152207.2113488842</v>
@@ -26340,7 +26340,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="K2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="L2" t="n">
         <v>152207.2113488842</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="D4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="E4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="F4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="G4" t="n">
-        <v>29404.4924681404</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="H4" t="n">
-        <v>29404.4924681404</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="I4" t="n">
         <v>29404.49246814041</v>
       </c>
       <c r="J4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="K4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="L4" t="n">
         <v>29404.49246814041</v>
@@ -26453,10 +26453,10 @@
         <v>29404.49246814041</v>
       </c>
       <c r="N4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="O4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="P4" t="n">
         <v>29404.49246814041</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117521.8560908679</v>
+        <v>-118199.3849502618</v>
       </c>
       <c r="C6" t="n">
-        <v>57433.65380224623</v>
+        <v>56756.12494285216</v>
       </c>
       <c r="D6" t="n">
-        <v>57433.65380224623</v>
+        <v>56756.12494285218</v>
       </c>
       <c r="E6" t="n">
-        <v>91061.25380224621</v>
+        <v>90383.72494285218</v>
       </c>
       <c r="F6" t="n">
-        <v>91061.25380224615</v>
+        <v>90383.72494285215</v>
       </c>
       <c r="G6" t="n">
-        <v>91061.25380224621</v>
+        <v>90383.72494285223</v>
       </c>
       <c r="H6" t="n">
-        <v>91061.25380224627</v>
+        <v>90383.72494285218</v>
       </c>
       <c r="I6" t="n">
-        <v>91061.25380224621</v>
+        <v>90383.72494285215</v>
       </c>
       <c r="J6" t="n">
-        <v>-45533.54700364874</v>
+        <v>-46211.0758630428</v>
       </c>
       <c r="K6" t="n">
-        <v>91061.25380224615</v>
+        <v>90383.72494285218</v>
       </c>
       <c r="L6" t="n">
-        <v>91061.25380224624</v>
+        <v>90383.7249428522</v>
       </c>
       <c r="M6" t="n">
-        <v>91061.25380224621</v>
+        <v>90383.72494285218</v>
       </c>
       <c r="N6" t="n">
-        <v>91061.25380224624</v>
+        <v>90383.72494285218</v>
       </c>
       <c r="O6" t="n">
-        <v>91061.25380224624</v>
+        <v>90383.72494285215</v>
       </c>
       <c r="P6" t="n">
-        <v>91061.25380224627</v>
+        <v>90383.72494285223</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>179.3869557635729</v>
+        <v>14.48459394538798</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.55973291537934</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>147.5918456237786</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>474.8949538093259</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793174</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>471.1119924130245</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P21" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>441.875604297781</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.2096305948393</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>500.9700927793174</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37150,19 +37150,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>306.2096305948394</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>135.5987266329973</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>117.7337452574857</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>306.2096305948394</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700254</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>306.2096305948396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>500.9700927793174</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
